--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="プレイヤー登場" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="プレイヤー移動" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,30 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketPlayerEnter</t>
+    <t xml:space="preserve">PacketPlayerMove</t>
   </si>
   <si>
     <t xml:space="preserve">$PACKET_ID$</t>
   </si>
   <si>
-    <t xml:space="preserve">PlayerEnter</t>
+    <t xml:space="preserve">PlayerMove</t>
   </si>
   <si>
     <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Vec3</t>
@@ -162,13 +153,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -205,27 +196,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -32,18 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">PlayerMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vec3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">座標</t>
   </si>
 </sst>
 </file>
@@ -153,13 +141,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -182,18 +170,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
